--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1144799.15596503</v>
+        <v>-1146503.508101742</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>29.16064535972639</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>129.2337804795058</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.4693513325733</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8.983945222429185</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.36172263168805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>183.4693513325733</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>35.07946604867392</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.02278574591163</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.3140662372056</v>
       </c>
       <c r="C11" t="n">
-        <v>120.5580333828015</v>
+        <v>344.8531163447326</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>334.263266194408</v>
       </c>
       <c r="E11" t="n">
-        <v>361.5105946459869</v>
+        <v>361.5105946459868</v>
       </c>
       <c r="F11" t="n">
         <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437242</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8530230257433</v>
@@ -1421,10 +1421,10 @@
         <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192736</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059507</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>307.33248304386</v>
@@ -1436,7 +1436,7 @@
         <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.8181632297787</v>
+        <v>260.5335606051833</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I12" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.65304841868479</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S12" t="n">
         <v>148.1971745240615</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.4122047556623</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.1522558959534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267668</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021383</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.717867897553</v>
       </c>
       <c r="W13" t="n">
-        <v>263.5783398965218</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>205.2898799627622</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>157.4156718762583</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>344.8531163447326</v>
       </c>
       <c r="D14" t="n">
-        <v>86.54149707450297</v>
+        <v>334.263266194408</v>
       </c>
       <c r="E14" t="n">
         <v>361.5105946459868</v>
@@ -1619,13 +1619,13 @@
         <v>386.4562703154365</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437241</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302574</v>
+        <v>98.94929161302578</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.749137466434</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192736</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059506</v>
+        <v>29.46453484183816</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
         <v>328.8211932911381</v>
@@ -1673,7 +1673,7 @@
         <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>365.8181632297786</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S15" t="n">
         <v>148.1971745240615</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>159.4122047556623</v>
       </c>
       <c r="C16" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919374</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244175</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14.60631518437305</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.9965309021383</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>62.1412602309741</v>
       </c>
       <c r="V16" t="n">
         <v>231.717867897553</v>
@@ -1828,10 +1828,10 @@
         <v>266.103222910316</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.2898799627622</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="17">
@@ -1844,16 +1844,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C17" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E17" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F17" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G17" t="n">
         <v>331.1282792841545</v>
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345617</v>
+        <v>37.55779725345612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686442</v>
       </c>
       <c r="T17" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U17" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V17" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W17" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X17" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y17" t="n">
         <v>304.426668870209</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S18" t="n">
         <v>148.1971745240615</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.02071039609275</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236781</v>
+        <v>6.747869322778456</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F19" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179401</v>
+        <v>85.11966459179393</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462665</v>
+        <v>47.81864454462661</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
@@ -2056,7 +2056,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>58.9580537129539</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V19" t="n">
         <v>170.3263735379834</v>
@@ -2065,7 +2065,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X19" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y19" t="n">
         <v>136.7733835662502</v>
@@ -2081,16 +2081,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E20" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G20" t="n">
         <v>331.1282792841545</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345617</v>
+        <v>37.5577972534561</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686444</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T20" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U20" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V20" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y20" t="n">
         <v>304.426668870209</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609275</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278329</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D22" t="n">
-        <v>49.54478910780507</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8.710213719361633</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179401</v>
+        <v>85.11966459179393</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484791</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462665</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2293,7 +2293,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V22" t="n">
         <v>170.3263735379834</v>
@@ -2302,7 +2302,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y22" t="n">
         <v>136.7733835662502</v>
@@ -2318,16 +2318,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C23" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D23" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E23" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F23" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G23" t="n">
         <v>331.1282792841545</v>
@@ -2336,7 +2336,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345616</v>
+        <v>37.5577972534561</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686446</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T23" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U23" t="n">
-        <v>169.3453280463816</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V23" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W23" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X23" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y23" t="n">
         <v>304.426668870209</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609275</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278329</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236781</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F25" t="n">
-        <v>63.6097782370867</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H25" t="n">
-        <v>10.61891853426744</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462659</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
@@ -2530,7 +2530,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U25" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V25" t="n">
         <v>170.3263735379834</v>
@@ -2539,10 +2539,10 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X25" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7733835662502</v>
+        <v>121.6954798133317</v>
       </c>
     </row>
     <row r="26">
@@ -2555,16 +2555,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C26" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D26" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E26" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F26" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G26" t="n">
         <v>331.1282792841545</v>
@@ -2573,7 +2573,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345609</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686437</v>
+        <v>73.35764310686446</v>
       </c>
       <c r="T26" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U26" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V26" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W26" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X26" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y26" t="n">
         <v>304.426668870209</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609267</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C28" t="n">
-        <v>85.4355513127832</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236773</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072454</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>51.05620215113321</v>
       </c>
       <c r="G28" t="n">
-        <v>3.237557606508492</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484789</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638374</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462658</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
@@ -2767,7 +2767,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U28" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V28" t="n">
         <v>170.3263735379834</v>
@@ -2776,7 +2776,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X28" t="n">
-        <v>143.8983856031925</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y28" t="n">
         <v>136.7733835662502</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609274</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278328</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D31" t="n">
-        <v>66.8042032323678</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179399</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484797</v>
+        <v>10.61891853426789</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638381</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>30.55923042006458</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S31" t="n">
         <v>123.7316352671971</v>
@@ -3029,16 +3029,16 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
-        <v>294.0164575385911</v>
+        <v>296.2197044479365</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080408</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>325.0256365363284</v>
@@ -3047,7 +3047,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T32" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U32" t="n">
         <v>163.2426852985549</v>
@@ -3092,7 +3092,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
-        <v>284.0204350541439</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y32" t="n">
         <v>298.3240261223829</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G34" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855718</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.7160017968005</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S34" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U34" t="n">
         <v>198.3472961875027</v>
@@ -3250,7 +3250,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
         <v>130.6707408184241</v>
@@ -3269,13 +3269,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E35" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G35" t="n">
         <v>325.0256365363284</v>
@@ -3317,7 +3317,7 @@
         <v>67.25500035903829</v>
       </c>
       <c r="T35" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U35" t="n">
         <v>163.2426852985549</v>
@@ -3329,7 +3329,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y35" t="n">
         <v>298.3240261223829</v>
@@ -3363,7 +3363,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I36" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S36" t="n">
         <v>148.1971745240615</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702181</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I37" t="n">
         <v>35.65811878855766</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680051</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S37" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U37" t="n">
         <v>198.3472961875027</v>
@@ -3487,7 +3487,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y37" t="n">
         <v>130.6707408184241</v>
@@ -3503,7 +3503,7 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C38" t="n">
-        <v>277.3589792373369</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D38" t="n">
         <v>266.7691290870123</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450563061</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903832</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T38" t="n">
         <v>124.8370796118779</v>
       </c>
       <c r="U38" t="n">
-        <v>163.242685298555</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V38" t="n">
         <v>239.8383459364642</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.91806764826661</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495715</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454167</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289849</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926056</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396787</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680052</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3715,7 +3715,7 @@
         <v>135.5023937947426</v>
       </c>
       <c r="U40" t="n">
-        <v>198.3472961875028</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V40" t="n">
         <v>164.2237307901573</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450562998</v>
+        <v>31.45515450562999</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903826</v>
+        <v>67.25500035903866</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118778</v>
@@ -3837,7 +3837,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I42" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S42" t="n">
         <v>148.1971745240615</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826656</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454162</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702178</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855763</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680046</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
@@ -3980,13 +3980,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D44" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F44" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
         <v>325.0256365363284</v>
@@ -3995,7 +3995,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450562999</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4040,7 +4040,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X44" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y44" t="n">
         <v>298.3240261223829</v>
@@ -4074,7 +4074,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I45" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S45" t="n">
         <v>148.1971745240615</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T46" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U46" t="n">
         <v>198.3472961875027</v>
@@ -4198,7 +4198,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X46" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
         <v>130.6707408184241</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F2" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C3" t="n">
-        <v>726.8416594126254</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D3" t="n">
-        <v>577.9072497513741</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E3" t="n">
-        <v>418.6697947459187</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.100638759784</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.100638759784</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.100638759784</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.100638759784</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>452.2491385542513</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>452.2491385542513</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.6429630387997</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>768.6429630387997</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>525.1941863946997</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
         <v>274.7999090013961</v>
@@ -4595,22 +4595,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>29.1099679068663</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>29.1099679068663</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>29.1099679068663</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>29.1099679068663</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y6" t="n">
-        <v>223.7040404982626</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="7">
@@ -4741,16 +4741,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>460.1224861050055</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>216.6737094609055</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.1947276839472</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,13 +4890,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y9" t="n">
-        <v>817.4100647040152</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
         <v>41.77557929797318</v>
@@ -4996,16 +4996,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.030914713349</v>
+        <v>1912.746647554374</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.25512341759</v>
+        <v>1564.410166398078</v>
       </c>
       <c r="D11" t="n">
-        <v>1623.25512341759</v>
+        <v>1226.770503575444</v>
       </c>
       <c r="E11" t="n">
-        <v>1258.092906603461</v>
+        <v>861.6082867613155</v>
       </c>
       <c r="F11" t="n">
-        <v>867.73303759797</v>
+        <v>471.2484177558242</v>
       </c>
       <c r="G11" t="n">
-        <v>471.2484177558243</v>
+        <v>471.2484177558242</v>
       </c>
       <c r="H11" t="n">
         <v>173.4170813661846</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J11" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075381</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L11" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M11" t="n">
         <v>1837.877529641655</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O11" t="n">
         <v>3004.568888469954</v>
@@ -5060,31 +5060,31 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q11" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R11" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
         <v>3537.304858089304</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.030901807209</v>
+        <v>3537.304858089304</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.963404427461</v>
+        <v>3537.304858089304</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868007</v>
+        <v>3226.868006529849</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.383933382009</v>
+        <v>2894.725387043851</v>
       </c>
       <c r="X11" t="n">
-        <v>2114.544210905045</v>
+        <v>2541.885664566887</v>
       </c>
       <c r="Y11" t="n">
-        <v>1745.030914713349</v>
+        <v>2278.720451834379</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J12" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K12" t="n">
-        <v>139.1391845095015</v>
+        <v>319.6362577003533</v>
       </c>
       <c r="L12" t="n">
-        <v>640.8962733943815</v>
+        <v>821.3933465852332</v>
       </c>
       <c r="M12" t="n">
-        <v>1278.402351410398</v>
+        <v>997.8514114887491</v>
       </c>
       <c r="N12" t="n">
-        <v>1948.488331740416</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O12" t="n">
-        <v>2495.070413569004</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P12" t="n">
         <v>2636.196714164933</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="C13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="D13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="E13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="F13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="G13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="H13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814359</v>
+        <v>75.45401965814355</v>
       </c>
       <c r="K13" t="n">
         <v>195.5491741164735</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432038</v>
+        <v>399.1026573432036</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459853</v>
+        <v>623.0114736459855</v>
       </c>
       <c r="N13" t="n">
         <v>847.511536432755</v>
@@ -5224,25 +5224,25 @@
         <v>1207.639325881398</v>
       </c>
       <c r="S13" t="n">
-        <v>1020.646265652341</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="T13" t="n">
-        <v>815.5992647410903</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="U13" t="n">
-        <v>547.0725644432132</v>
+        <v>939.1126255835211</v>
       </c>
       <c r="V13" t="n">
-        <v>547.0725644432132</v>
+        <v>705.0541731617503</v>
       </c>
       <c r="W13" t="n">
-        <v>280.8318170729891</v>
+        <v>705.0541731617503</v>
       </c>
       <c r="X13" t="n">
-        <v>73.46830195908778</v>
+        <v>497.6906580478491</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.46830195908778</v>
+        <v>338.6849288799114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2059.007258184493</v>
+        <v>1912.746647554374</v>
       </c>
       <c r="C14" t="n">
-        <v>1710.670777028198</v>
+        <v>1564.410166398078</v>
       </c>
       <c r="D14" t="n">
-        <v>1623.255123417589</v>
+        <v>1226.770503575444</v>
       </c>
       <c r="E14" t="n">
-        <v>1258.092906603461</v>
+        <v>861.6082867613155</v>
       </c>
       <c r="F14" t="n">
-        <v>867.7330375979695</v>
+        <v>471.2484177558241</v>
       </c>
       <c r="G14" t="n">
         <v>471.2484177558241</v>
@@ -5273,13 +5273,13 @@
         <v>173.4170813661844</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J14" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075377</v>
       </c>
       <c r="L14" t="n">
         <v>1210.096241442436</v>
@@ -5288,40 +5288,40 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P14" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089304</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807209</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="U14" t="n">
-        <v>3109.963404427461</v>
+        <v>3643.652941548491</v>
       </c>
       <c r="V14" t="n">
-        <v>3109.963404427461</v>
+        <v>3333.216089989036</v>
       </c>
       <c r="W14" t="n">
-        <v>2777.820784941463</v>
+        <v>3001.073470503038</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.981062464499</v>
+        <v>2648.233748026075</v>
       </c>
       <c r="Y14" t="n">
-        <v>2424.981062464499</v>
+        <v>2278.720451834379</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J15" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K15" t="n">
-        <v>518.4857520746643</v>
+        <v>319.6362577003533</v>
       </c>
       <c r="L15" t="n">
-        <v>1020.242840959544</v>
+        <v>821.3933465852332</v>
       </c>
       <c r="M15" t="n">
-        <v>1196.70090586306</v>
+        <v>997.8514114887491</v>
       </c>
       <c r="N15" t="n">
-        <v>1459.960876960276</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O15" t="n">
-        <v>2006.542958788865</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.9888845739441</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="C16" t="n">
-        <v>336.6787374301533</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="D16" t="n">
-        <v>207.1881338019338</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="E16" t="n">
-        <v>207.1881338019338</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="F16" t="n">
-        <v>207.1881338019338</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="G16" t="n">
-        <v>207.1881338019338</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="H16" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814368</v>
+        <v>75.45401965814362</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164736</v>
+        <v>195.5491741164734</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432038</v>
+        <v>399.1026573432036</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459858</v>
+        <v>623.0114736459855</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327551</v>
+        <v>847.511536432755</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995802</v>
       </c>
       <c r="P16" t="n">
-        <v>1184.847502163549</v>
+        <v>1184.847502163548</v>
       </c>
       <c r="Q16" t="n">
         <v>1207.639325881399</v>
       </c>
       <c r="R16" t="n">
-        <v>1192.88547215981</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S16" t="n">
-        <v>1192.88547215981</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="T16" t="n">
-        <v>987.8384712485594</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="U16" t="n">
-        <v>987.8384712485594</v>
+        <v>1144.870376153142</v>
       </c>
       <c r="V16" t="n">
-        <v>753.7800188267886</v>
+        <v>910.8119237313712</v>
       </c>
       <c r="W16" t="n">
-        <v>484.9888845739441</v>
+        <v>642.0207894785266</v>
       </c>
       <c r="X16" t="n">
-        <v>484.9888845739441</v>
+        <v>434.6572743646254</v>
       </c>
       <c r="Y16" t="n">
-        <v>484.9888845739441</v>
+        <v>234.4907310052114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053343</v>
+        <v>681.6982062053341</v>
       </c>
       <c r="G17" t="n">
         <v>347.2251968274004</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019725</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J17" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075378</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
@@ -5534,16 +5534,16 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S17" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T17" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U17" t="n">
         <v>3295.998235820096</v>
@@ -5555,7 +5555,7 @@
         <v>2777.441985703067</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y17" t="n">
         <v>2179.112187962831</v>
@@ -5589,25 +5589,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8663855413911</v>
+        <v>139.1391845095014</v>
       </c>
       <c r="L18" t="n">
-        <v>675.6234744262711</v>
+        <v>640.8962733943813</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.129552442287</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N18" t="n">
-        <v>1983.215532772305</v>
+        <v>1948.488331740415</v>
       </c>
       <c r="O18" t="n">
-        <v>2529.797614600894</v>
+        <v>2495.070413569004</v>
       </c>
       <c r="P18" t="n">
         <v>2636.196714164933</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>556.6438483590758</v>
+        <v>409.6823481344567</v>
       </c>
       <c r="C19" t="n">
-        <v>470.3453116794968</v>
+        <v>409.6823481344567</v>
       </c>
       <c r="D19" t="n">
-        <v>402.8663185154889</v>
+        <v>402.8663185154886</v>
       </c>
       <c r="E19" t="n">
-        <v>337.5908711814236</v>
+        <v>337.5908711814234</v>
       </c>
       <c r="F19" t="n">
-        <v>273.3385699318411</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="G19" t="n">
-        <v>187.3591107482108</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H19" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K19" t="n">
         <v>317.1043329484214</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
@@ -5704,19 +5704,19 @@
         <v>1377.541459841117</v>
       </c>
       <c r="U19" t="n">
-        <v>1317.987870232073</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V19" t="n">
-        <v>1145.941028274513</v>
+        <v>998.9795280498925</v>
       </c>
       <c r="W19" t="n">
-        <v>939.1615044858806</v>
+        <v>792.2000042612598</v>
       </c>
       <c r="X19" t="n">
-        <v>793.8095998361912</v>
+        <v>646.8480996115704</v>
       </c>
       <c r="Y19" t="n">
-        <v>655.6546669409877</v>
+        <v>508.6931667163685</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053344</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274006</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I20" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J20" t="n">
-        <v>260.2054441404288</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K20" t="n">
-        <v>660.8208179075384</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L20" t="n">
         <v>1210.096241442436</v>
@@ -5762,40 +5762,40 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N20" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O20" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P20" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T20" t="n">
         <v>3467.054122735633</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I21" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J21" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K21" t="n">
-        <v>518.4857520746643</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L21" t="n">
-        <v>1020.242840959544</v>
+        <v>902.7168580368341</v>
       </c>
       <c r="M21" t="n">
-        <v>1196.70090586306</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N21" t="n">
         <v>1459.960876960276</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.6823481344557</v>
+        <v>457.9840092906445</v>
       </c>
       <c r="C22" t="n">
-        <v>323.3838114548765</v>
+        <v>371.6854726110655</v>
       </c>
       <c r="D22" t="n">
-        <v>273.3385699318411</v>
+        <v>304.2064794470577</v>
       </c>
       <c r="E22" t="n">
-        <v>273.3385699318411</v>
+        <v>295.4082837709348</v>
       </c>
       <c r="F22" t="n">
-        <v>273.3385699318411</v>
+        <v>231.1559825213523</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3591107482108</v>
+        <v>145.176523337722</v>
       </c>
       <c r="H22" t="n">
-        <v>115.6508893695765</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I22" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
         <v>136.2315990741175</v>
@@ -5914,10 +5914,10 @@
         <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
@@ -5932,28 +5932,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053002</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.576850288156</v>
+        <v>1568.878511444345</v>
       </c>
       <c r="T22" t="n">
-        <v>1377.541459841117</v>
+        <v>1425.843120997306</v>
       </c>
       <c r="U22" t="n">
-        <v>1171.026370007451</v>
+        <v>1219.32803116364</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9795280498922</v>
+        <v>1047.281189206081</v>
       </c>
       <c r="W22" t="n">
-        <v>792.2000042612594</v>
+        <v>840.5016654174481</v>
       </c>
       <c r="X22" t="n">
-        <v>646.84809961157</v>
+        <v>695.1497607677586</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.6931667163675</v>
+        <v>556.9948278725564</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E23" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053344</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274006</v>
       </c>
       <c r="H23" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I23" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J23" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K23" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L23" t="n">
         <v>1210.096241442436</v>
@@ -6008,13 +6008,13 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q23" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
         <v>3467.054122735633</v>
@@ -6063,28 +6063,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J24" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K24" t="n">
-        <v>518.4857520746643</v>
+        <v>173.8663855413911</v>
       </c>
       <c r="L24" t="n">
-        <v>1020.242840959544</v>
+        <v>675.6234744262711</v>
       </c>
       <c r="M24" t="n">
-        <v>1196.70090586306</v>
+        <v>1313.129552442287</v>
       </c>
       <c r="N24" t="n">
-        <v>1459.960876960276</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O24" t="n">
-        <v>2006.542958788865</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P24" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.402498082636</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.6823481344551</v>
+        <v>424.9125539454851</v>
       </c>
       <c r="C25" t="n">
-        <v>323.383811454876</v>
+        <v>338.6140172659061</v>
       </c>
       <c r="D25" t="n">
-        <v>255.9048182908681</v>
+        <v>338.6140172659061</v>
       </c>
       <c r="E25" t="n">
-        <v>190.6293709568029</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="F25" t="n">
-        <v>126.3770697072204</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="G25" t="n">
-        <v>126.3770697072204</v>
+        <v>187.3591107482106</v>
       </c>
       <c r="H25" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I25" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741174</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M25" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N25" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O25" t="n">
         <v>1405.066081491645</v>
@@ -6169,28 +6169,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S25" t="n">
         <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1377.541459841116</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1171.026370007451</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V25" t="n">
-        <v>998.9795280498918</v>
+        <v>998.9795280498928</v>
       </c>
       <c r="W25" t="n">
-        <v>792.200004261259</v>
+        <v>792.20000426126</v>
       </c>
       <c r="X25" t="n">
-        <v>646.8480996115694</v>
+        <v>646.8480996115705</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.6931667163669</v>
+        <v>523.923372527397</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053348</v>
+        <v>681.6982062053347</v>
       </c>
       <c r="G26" t="n">
-        <v>347.225196827401</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
         <v>73.46830195908778</v>
@@ -6251,10 +6251,10 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U26" t="n">
         <v>3295.998235820096</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.6823481344571</v>
+        <v>457.9840092906442</v>
       </c>
       <c r="C28" t="n">
-        <v>323.3838114548781</v>
+        <v>371.6854726110651</v>
       </c>
       <c r="D28" t="n">
-        <v>255.9048182908703</v>
+        <v>304.2064794470572</v>
       </c>
       <c r="E28" t="n">
-        <v>190.6293709568051</v>
+        <v>238.9310321129921</v>
       </c>
       <c r="F28" t="n">
-        <v>190.6293709568051</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="G28" t="n">
-        <v>187.3591107482106</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6508893695764</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I28" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484216</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L28" t="n">
         <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098814</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N28" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O28" t="n">
         <v>1405.066081491645</v>
@@ -6406,28 +6406,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R28" t="n">
-        <v>1645.558300053002</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="S28" t="n">
-        <v>1520.576850288157</v>
+        <v>1568.878511444344</v>
       </c>
       <c r="T28" t="n">
-        <v>1377.541459841118</v>
+        <v>1425.843120997305</v>
       </c>
       <c r="U28" t="n">
-        <v>1171.026370007452</v>
+        <v>1219.32803116364</v>
       </c>
       <c r="V28" t="n">
-        <v>998.979528049893</v>
+        <v>1047.281189206081</v>
       </c>
       <c r="W28" t="n">
-        <v>792.2000042612603</v>
+        <v>840.501665417448</v>
       </c>
       <c r="X28" t="n">
-        <v>646.8480996115709</v>
+        <v>695.1497607677584</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.6931667163689</v>
+        <v>556.994827872556</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E29" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053347</v>
+        <v>681.6982062053343</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4054709019729</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I29" t="n">
         <v>73.46830195908778</v>
@@ -6464,7 +6464,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K29" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L29" t="n">
         <v>1210.096241442436</v>
@@ -6473,10 +6473,10 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N29" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O29" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P29" t="n">
         <v>3430.660101634156</v>
@@ -6488,19 +6488,19 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U29" t="n">
         <v>3295.998235820096</v>
       </c>
       <c r="V29" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X29" t="n">
         <v>2486.613873690315</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>427.1160997754277</v>
+        <v>409.6823481344557</v>
       </c>
       <c r="C31" t="n">
-        <v>340.8175630958486</v>
+        <v>323.3838114548765</v>
       </c>
       <c r="D31" t="n">
-        <v>273.3385699318408</v>
+        <v>255.9048182908687</v>
       </c>
       <c r="E31" t="n">
-        <v>273.3385699318408</v>
+        <v>190.6293709568034</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318408</v>
+        <v>126.3770697072208</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482105</v>
+        <v>126.3770697072208</v>
       </c>
       <c r="H31" t="n">
         <v>115.6508893695765</v>
@@ -6628,43 +6628,43 @@
         <v>581.4353955911255</v>
       </c>
       <c r="M31" t="n">
-        <v>866.1217913098815</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O31" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P31" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q31" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R31" t="n">
-        <v>1662.992051693974</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S31" t="n">
-        <v>1538.010601929128</v>
+        <v>1520.576850288155</v>
       </c>
       <c r="T31" t="n">
-        <v>1394.975211482089</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U31" t="n">
-        <v>1188.460121648423</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V31" t="n">
-        <v>1016.413279690864</v>
+        <v>998.9795280498918</v>
       </c>
       <c r="W31" t="n">
-        <v>809.6337559022313</v>
+        <v>792.200004261259</v>
       </c>
       <c r="X31" t="n">
-        <v>664.2818512525419</v>
+        <v>646.8480996115695</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.1269183573396</v>
+        <v>508.6931667163675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.801926772176</v>
+        <v>1923.027428700808</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.839409831765</v>
+        <v>1642.866843612589</v>
       </c>
       <c r="D32" t="n">
-        <v>1282.375643077207</v>
+        <v>1373.403076858031</v>
       </c>
       <c r="E32" t="n">
-        <v>985.3893223311552</v>
+        <v>1074.191254183348</v>
       </c>
       <c r="F32" t="n">
-        <v>663.2053493937403</v>
+        <v>663.2053493937401</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8966256196712</v>
+        <v>334.8966256196711</v>
       </c>
       <c r="H32" t="n">
         <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404284</v>
+        <v>260.205444140428</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075376</v>
       </c>
       <c r="L32" t="n">
         <v>1210.096241442436</v>
@@ -6719,16 +6719,16 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q32" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R32" t="n">
         <v>3671.978247677241</v>
       </c>
       <c r="S32" t="n">
-        <v>3604.043903880233</v>
+        <v>3604.043903880232</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.945843666215</v>
+        <v>3477.945843666214</v>
       </c>
       <c r="U32" t="n">
         <v>3313.054242354543</v>
@@ -6737,13 +6737,13 @@
         <v>3070.793286863165</v>
       </c>
       <c r="W32" t="n">
-        <v>2806.826563445244</v>
+        <v>2806.826563445243</v>
       </c>
       <c r="X32" t="n">
-        <v>2519.937235107725</v>
+        <v>2522.162737036356</v>
       </c>
       <c r="Y32" t="n">
-        <v>2218.599834984106</v>
+        <v>2220.825336912737</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I33" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J33" t="n">
         <v>190.9942848817978</v>
@@ -6786,7 +6786,7 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M33" t="n">
-        <v>1264.423847230376</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N33" t="n">
         <v>1459.960876960276</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320221</v>
+        <v>513.493849132022</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563078</v>
+        <v>433.3595980563077</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961648</v>
+        <v>372.0448904961646</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659643</v>
+        <v>312.9337287659641</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202466</v>
+        <v>254.8457131202464</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404811</v>
+        <v>175.0305395404807</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657117</v>
+        <v>109.4866037657112</v>
       </c>
       <c r="I34" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944654</v>
+        <v>142.2732153944655</v>
       </c>
       <c r="K34" t="n">
-        <v>329.187565589117</v>
+        <v>329.1875655891172</v>
       </c>
       <c r="L34" t="n">
-        <v>599.560244552169</v>
+        <v>599.5602445521693</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912728</v>
+        <v>890.288256591273</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
@@ -6880,10 +6880,10 @@
         <v>1742.192891771973</v>
       </c>
       <c r="R34" t="n">
-        <v>1700.055516219649</v>
+        <v>1700.05551621965</v>
       </c>
       <c r="S34" t="n">
-        <v>1581.238352058668</v>
+        <v>1581.238352058669</v>
       </c>
       <c r="T34" t="n">
         <v>1444.367247215494</v>
@@ -6892,16 +6892,16 @@
         <v>1244.016442985694</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886632</v>
+        <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472316</v>
+        <v>877.5186484472313</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014067</v>
+        <v>738.3310294014065</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100692</v>
+        <v>606.3403821100691</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E35" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884757</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144067</v>
       </c>
       <c r="H35" t="n">
         <v>103.3541590928433</v>
@@ -6941,7 +6941,7 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L35" t="n">
-        <v>1208.209215237172</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M35" t="n">
         <v>1743.526219378419</v>
@@ -6965,7 +6965,7 @@
         <v>3511.129443894144</v>
       </c>
       <c r="T35" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680125</v>
       </c>
       <c r="U35" t="n">
         <v>3220.139782368454</v>
@@ -6974,7 +6974,7 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X35" t="n">
         <v>2429.248277050267</v>
@@ -7014,13 +7014,13 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J36" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="K36" t="n">
-        <v>405.7803414584843</v>
+        <v>399.0727429466895</v>
       </c>
       <c r="L36" t="n">
-        <v>540.4054884929396</v>
+        <v>540.4054884929401</v>
       </c>
       <c r="M36" t="n">
         <v>1177.911566508956</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267571</v>
+        <v>511.6068229267578</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510428</v>
+        <v>431.4725718510435</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909004</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606992</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F37" t="n">
         <v>252.958686914982</v>
@@ -7087,19 +7087,19 @@
         <v>173.1435133352165</v>
       </c>
       <c r="H37" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I37" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M37" t="n">
         <v>888.4012303860081</v>
@@ -7111,34 +7111,34 @@
         <v>1439.428753208468</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q37" t="n">
         <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S37" t="n">
         <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U37" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419664</v>
+        <v>875.6316222419671</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961417</v>
+        <v>736.4440031961424</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048042</v>
+        <v>604.4533559048048</v>
       </c>
     </row>
     <row r="38">
@@ -7154,31 +7154,31 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871943</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258906</v>
+        <v>983.502296125891</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884756</v>
+        <v>661.3183231884761</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144065</v>
+        <v>333.009599414407</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928439</v>
       </c>
       <c r="I38" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3184179351637</v>
+        <v>165.8541338771919</v>
       </c>
       <c r="K38" t="n">
-        <v>658.9337917022733</v>
+        <v>566.4695076443016</v>
       </c>
       <c r="L38" t="n">
-        <v>1208.209215237172</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M38" t="n">
         <v>1743.526219378419</v>
@@ -7217,7 +7217,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926649</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J39" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="K39" t="n">
-        <v>516.5987258693996</v>
+        <v>171.979359336126</v>
       </c>
       <c r="L39" t="n">
-        <v>1018.35581475428</v>
+        <v>673.736448221006</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.813879657795</v>
+        <v>1311.242526237022</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.073850755012</v>
+        <v>1981.32850656704</v>
       </c>
       <c r="O39" t="n">
-        <v>2004.655932583601</v>
+        <v>2527.910588395629</v>
       </c>
       <c r="P39" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q39" t="n">
         <v>2655.515471877372</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267575</v>
+        <v>511.6068229267576</v>
       </c>
       <c r="C40" t="n">
         <v>431.4725718510432</v>
@@ -7315,22 +7315,22 @@
         <v>370.1578642909001</v>
       </c>
       <c r="E40" t="n">
-        <v>311.0467025606996</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F40" t="n">
         <v>252.9586869149819</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352163</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H40" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I40" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K40" t="n">
         <v>327.3005393838523</v>
@@ -7342,7 +7342,7 @@
         <v>888.4012303860081</v>
       </c>
       <c r="N40" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O40" t="n">
         <v>1439.428753208468</v>
@@ -7360,7 +7360,7 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U40" t="n">
         <v>1242.129416780429</v>
@@ -7369,13 +7369,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419667</v>
+        <v>875.631622241967</v>
       </c>
       <c r="X40" t="n">
-        <v>736.444003196142</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048045</v>
+        <v>604.4533559048047</v>
       </c>
     </row>
     <row r="41">
@@ -7409,16 +7409,16 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J41" t="n">
-        <v>258.3184179351637</v>
+        <v>165.8541338771919</v>
       </c>
       <c r="K41" t="n">
-        <v>658.9337917022733</v>
+        <v>566.4695076443016</v>
       </c>
       <c r="L41" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M41" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N41" t="n">
         <v>2366.833667600018</v>
@@ -7488,25 +7488,25 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J42" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="K42" t="n">
-        <v>516.5987258693996</v>
+        <v>137.2521583042368</v>
       </c>
       <c r="L42" t="n">
-        <v>651.223872903855</v>
+        <v>358.4583072674683</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.911566508956</v>
+        <v>995.9643852834844</v>
       </c>
       <c r="N42" t="n">
-        <v>1847.997546838974</v>
+        <v>1666.050365613502</v>
       </c>
       <c r="O42" t="n">
-        <v>2004.655932583601</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267572</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C43" t="n">
-        <v>431.472571851043</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642908999</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606995</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149818</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352163</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5995775604468</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I43" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K43" t="n">
         <v>327.3005393838525</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469046</v>
+        <v>597.6732183469045</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860083</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N43" t="n">
         <v>1179.7204889091</v>
@@ -7603,16 +7603,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419667</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X43" t="n">
-        <v>736.444003196142</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048043</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258901</v>
+        <v>983.5022961258903</v>
       </c>
       <c r="F44" t="n">
         <v>661.3183231884755</v>
@@ -7640,10 +7640,10 @@
         <v>333.0095994144064</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J44" t="n">
         <v>258.3184179351637</v>
@@ -7652,31 +7652,31 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L44" t="n">
-        <v>1208.209215237171</v>
+        <v>1208.209215237172</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N44" t="n">
-        <v>2366.833667600019</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206719</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3428.773075428891</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S44" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T44" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U44" t="n">
         <v>3220.139782368454</v>
@@ -7722,28 +7722,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J45" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="K45" t="n">
-        <v>516.5987258693996</v>
+        <v>137.2521583042368</v>
       </c>
       <c r="L45" t="n">
-        <v>1001.45350160544</v>
+        <v>639.0092471891168</v>
       </c>
       <c r="M45" t="n">
-        <v>1177.911566508956</v>
+        <v>1276.515325205133</v>
       </c>
       <c r="N45" t="n">
-        <v>1847.997546838974</v>
+        <v>1946.601305535151</v>
       </c>
       <c r="O45" t="n">
-        <v>2004.655932583601</v>
+        <v>2493.18338736374</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F46" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H46" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J46" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892009</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838526</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860081</v>
+        <v>888.4012303860083</v>
       </c>
       <c r="N46" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O46" t="n">
         <v>1439.428753208468</v>
@@ -7834,22 +7834,22 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U46" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V46" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.377921277065369</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>182.3202759503555</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>35.07798084029218</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>182.3202759503555</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>68.40701148213773</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.377921277065383</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K18" t="n">
-        <v>35.07798084029261</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>35.07798084029275</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720741</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>187.1201255454812</v>
       </c>
       <c r="N21" t="n">
-        <v>68.40701148213773</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>35.07798084029262</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>68.40701148213773</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.798708171483</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>68.40701148213751</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>68.40701148213773</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10589,10 +10589,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>324.2629478252268</v>
       </c>
       <c r="M35" t="n">
-        <v>356.1152667676085</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K36" t="n">
-        <v>152.527474981351</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>6.775352032116388</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684979</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>356.1152667676085</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065369</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>35.07798084029214</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>68.40701148213768</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684979</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>343.9486576867607</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065369</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>87.45555750381425</v>
       </c>
       <c r="M42" t="n">
-        <v>353.7673017187728</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>343.9486576867612</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>118.9167239346806</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>353.7673017187728</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>35.07798084029218</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372057</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>224.2950829619311</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944081</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>392.5197736437241</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.3312167192736</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>105.2846026245954</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556624</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>146.8270456723529</v>
@@ -23434,7 +23434,7 @@
         <v>132.3826335244176</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959534</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.1231296267667</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>202.9965309021383</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975531</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.524883013794295</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258199</v>
+        <v>40.74920604956151</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>247.721769119905</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>392.5197736437241</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192736</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>201.2722875641125</v>
       </c>
       <c r="V14" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.8181632297786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556623</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E16" t="n">
         <v>126.0141872202942</v>
@@ -23668,7 +23668,7 @@
         <v>146.5111589513636</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I16" t="n">
         <v>103.1522558959534</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.60382371982318</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S16" t="n">
         <v>185.1231296267667</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.9965309021383</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8414332948985</v>
+        <v>203.7001730639244</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627622</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>60.0563339095893</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>145.491885222375</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>17.25941412456274</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072463</v>
+        <v>55.91247914136294</v>
       </c>
       <c r="F22" t="n">
-        <v>63.6097782370867</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.81864454462659</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179399</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>60.37222063058052</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>15.07790375291849</v>
       </c>
     </row>
     <row r="26">
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708662</v>
+        <v>12.55357608595349</v>
       </c>
       <c r="G28" t="n">
-        <v>81.88210698528542</v>
+        <v>85.11966459179399</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.81864454462666</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072461</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708669</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>60.37222063058009</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.25941412456207</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>184734.3982194638</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
@@ -26323,37 +26323,37 @@
         <v>159552.3564504353</v>
       </c>
       <c r="F2" t="n">
-        <v>159552.3564504354</v>
+        <v>159552.3564504353</v>
       </c>
       <c r="G2" t="n">
         <v>183948.7420392629</v>
       </c>
       <c r="H2" t="n">
-        <v>183948.7420392629</v>
+        <v>183948.7420392627</v>
       </c>
       <c r="I2" t="n">
-        <v>183948.7420392627</v>
+        <v>183948.7420392628</v>
       </c>
       <c r="J2" t="n">
-        <v>183948.7420392629</v>
+        <v>183948.742039263</v>
       </c>
       <c r="K2" t="n">
         <v>183948.7420392629</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="M2" t="n">
+        <v>184734.3982194634</v>
+      </c>
+      <c r="N2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194636</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194635</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.4200146754</v>
+        <v>690849.420014675</v>
       </c>
       <c r="F3" t="n">
-        <v>4.80213202536106e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765565</v>
+        <v>49113.19548765572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012619</v>
+        <v>79395.76294012615</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591656</v>
+        <v>53995.30968591665</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914784</v>
+        <v>162917.5281914783</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034102005</v>
+        <v>16335.82034101993</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187171</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="E4" t="n">
-        <v>53556.37033101673</v>
+        <v>53556.37033101675</v>
       </c>
       <c r="F4" t="n">
-        <v>53556.37033101678</v>
+        <v>53556.37033101675</v>
       </c>
       <c r="G4" t="n">
         <v>115595.2824310509</v>
@@ -26439,7 +26439,7 @@
         <v>115595.2824310509</v>
       </c>
       <c r="J4" t="n">
-        <v>115595.282431051</v>
+        <v>115595.2824310509</v>
       </c>
       <c r="K4" t="n">
         <v>115595.2824310509</v>
@@ -26491,13 +26491,13 @@
         <v>75528.68126939404</v>
       </c>
       <c r="J5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="K5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="L5" t="n">
-        <v>76041.72434256105</v>
+        <v>76041.72434256104</v>
       </c>
       <c r="M5" t="n">
         <v>74607.58442655986</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256911.6764945628</v>
+        <v>-256911.6764945627</v>
       </c>
       <c r="C6" t="n">
-        <v>-176142.244963015</v>
+        <v>-176142.2449630151</v>
       </c>
       <c r="D6" t="n">
-        <v>-176142.244963015</v>
+        <v>-176142.2449630151</v>
       </c>
       <c r="E6" t="n">
-        <v>-655220.9936253362</v>
+        <v>-655500.7940894362</v>
       </c>
       <c r="F6" t="n">
-        <v>35628.42638933919</v>
+        <v>35348.62592523882</v>
       </c>
       <c r="G6" t="n">
-        <v>-56288.41714883766</v>
+        <v>-56297.14666195115</v>
       </c>
       <c r="H6" t="n">
-        <v>-7175.221661182048</v>
+        <v>-7183.951174295594</v>
       </c>
       <c r="I6" t="n">
-        <v>-7175.221661182193</v>
+        <v>-7183.951174295565</v>
       </c>
       <c r="J6" t="n">
-        <v>-86570.98460130832</v>
+        <v>-86579.71411442148</v>
       </c>
       <c r="K6" t="n">
-        <v>-7175.221661182033</v>
+        <v>-7183.951174295361</v>
       </c>
       <c r="L6" t="n">
-        <v>-62905.99183251876</v>
+        <v>-62905.99183251878</v>
       </c>
       <c r="M6" t="n">
-        <v>-173798.3944058701</v>
+        <v>-173798.3944058702</v>
       </c>
       <c r="N6" t="n">
-        <v>-10880.86621439162</v>
+        <v>-10880.86621439167</v>
       </c>
       <c r="O6" t="n">
-        <v>-27216.68655541174</v>
+        <v>-27216.68655541167</v>
       </c>
       <c r="P6" t="n">
-        <v>-10880.86621439183</v>
+        <v>-10880.86621439176</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G2" t="n">
+        <v>81.8112697858446</v>
+      </c>
+      <c r="H2" t="n">
+        <v>81.8112697858446</v>
+      </c>
+      <c r="I2" t="n">
+        <v>81.8112697858446</v>
+      </c>
+      <c r="J2" t="n">
         <v>81.81126978584454</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>81.81126978584454</v>
       </c>
-      <c r="I2" t="n">
-        <v>81.81126978584454</v>
-      </c>
-      <c r="J2" t="n">
-        <v>81.81126978584463</v>
-      </c>
-      <c r="K2" t="n">
-        <v>81.81126978584456</v>
-      </c>
       <c r="L2" t="n">
+        <v>87.91391253367071</v>
+      </c>
+      <c r="M2" t="n">
+        <v>87.91391253367071</v>
+      </c>
+      <c r="N2" t="n">
         <v>87.9139125336707</v>
       </c>
-      <c r="M2" t="n">
-        <v>87.9139125336707</v>
-      </c>
-      <c r="N2" t="n">
-        <v>87.91391253367068</v>
-      </c>
       <c r="O2" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="G3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="H3" t="n">
         <v>587.843125727577</v>
@@ -26768,16 +26768,16 @@
         <v>587.843125727577</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="N3" t="n">
         <v>587.8431257275771</v>
       </c>
       <c r="O3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275771</v>
       </c>
       <c r="P3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275771</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="F4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="G4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="H4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="I4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="J4" t="n">
         <v>918.3537744885972</v>
@@ -26817,7 +26817,7 @@
         <v>918.3537744885972</v>
       </c>
       <c r="L4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="M4" t="n">
         <v>894.7659469227881</v>
@@ -26829,7 +26829,7 @@
         <v>894.7659469227881</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.7659469227881</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956956</v>
+        <v>61.39149435956965</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627501</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.4941371073957</v>
+        <v>67.49413710739582</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627506</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.3394856109381</v>
+        <v>677.339485610938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451291</v>
+        <v>653.7516580451288</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956956</v>
+        <v>61.39149435956965</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627501</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.3394856109381</v>
+        <v>677.339485610938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>136.8980149423187</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>143.5478536285893</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>70.93094821531577</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2644903309073</v>
+        <v>174.4700052756681</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>136.0852671709547</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>152.3209731456163</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27813,19 +27813,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>156.0054507831939</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>215.1297177180203</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>102.2640511145367</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,7 +27986,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>160.6599100313927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584399</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584463</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E32" t="n">
-        <v>87.9139125336707</v>
+        <v>85.71066562432526</v>
       </c>
       <c r="F32" t="n">
-        <v>87.9139125336707</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X32" t="n">
-        <v>85.71066562432509</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367009</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.422481774376138</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.91391253367068</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367033</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
   </sheetData>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H11" t="n">
-        <v>24.20200366374893</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J11" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K11" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L11" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M11" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669844</v>
       </c>
       <c r="N11" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O11" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354061</v>
       </c>
       <c r="P11" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q11" t="n">
         <v>255.1977662046789</v>
@@ -31786,13 +31786,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S11" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353632</v>
       </c>
       <c r="T11" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1890550756108789</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I12" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303282</v>
       </c>
       <c r="J12" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K12" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L12" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215293</v>
       </c>
       <c r="N12" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256564</v>
       </c>
       <c r="O12" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P12" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R12" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S12" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.060044980820221</v>
+        <v>1.06004498082022</v>
       </c>
       <c r="H13" t="n">
-        <v>9.424763556747061</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I13" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502991</v>
       </c>
       <c r="J13" t="n">
-        <v>74.94518014398962</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K13" t="n">
         <v>123.1579532262038</v>
@@ -31935,22 +31935,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P13" t="n">
-        <v>128.2076220439292</v>
+        <v>128.2076220439291</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R13" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S13" t="n">
-        <v>18.47369298393057</v>
+        <v>18.47369298393056</v>
       </c>
       <c r="T13" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H14" t="n">
-        <v>24.20200366374893</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I14" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J14" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K14" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L14" t="n">
         <v>372.9288605557974</v>
       </c>
       <c r="M14" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669844</v>
       </c>
       <c r="N14" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O14" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354061</v>
       </c>
       <c r="P14" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q14" t="n">
         <v>255.1977662046789</v>
@@ -32023,13 +32023,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S14" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353632</v>
       </c>
       <c r="T14" t="n">
         <v>10.34485741858278</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1890550756108789</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I15" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303282</v>
       </c>
       <c r="J15" t="n">
         <v>119.4597053896013</v>
@@ -32081,34 +32081,34 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M15" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215293</v>
       </c>
       <c r="N15" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256564</v>
       </c>
       <c r="O15" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P15" t="n">
         <v>241.4482453578042</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R15" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S15" t="n">
         <v>23.48599657977629</v>
       </c>
       <c r="T15" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.060044980820221</v>
+        <v>1.06004498082022</v>
       </c>
       <c r="H16" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I16" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502991</v>
       </c>
       <c r="J16" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K16" t="n">
         <v>123.1579532262038</v>
@@ -32172,22 +32172,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P16" t="n">
-        <v>128.2076220439292</v>
+        <v>128.2076220439291</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R16" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S16" t="n">
-        <v>18.47369298393057</v>
+        <v>18.47369298393056</v>
       </c>
       <c r="T16" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H17" t="n">
-        <v>24.20200366374893</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I17" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J17" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K17" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L17" t="n">
         <v>372.9288605557974</v>
       </c>
       <c r="M17" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669844</v>
       </c>
       <c r="N17" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O17" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354061</v>
       </c>
       <c r="P17" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q17" t="n">
         <v>255.1977662046789</v>
@@ -32260,13 +32260,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S17" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353632</v>
       </c>
       <c r="T17" t="n">
         <v>10.34485741858278</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1890550756108789</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I18" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303282</v>
       </c>
       <c r="J18" t="n">
         <v>119.4597053896013</v>
@@ -32318,34 +32318,34 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L18" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M18" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215293</v>
       </c>
       <c r="N18" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256564</v>
       </c>
       <c r="O18" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P18" t="n">
         <v>241.4482453578042</v>
       </c>
       <c r="Q18" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R18" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S18" t="n">
         <v>23.48599657977629</v>
       </c>
       <c r="T18" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.060044980820221</v>
+        <v>1.06004498082022</v>
       </c>
       <c r="H19" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I19" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502991</v>
       </c>
       <c r="J19" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K19" t="n">
         <v>123.1579532262038</v>
@@ -32409,22 +32409,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2076220439292</v>
+        <v>128.2076220439291</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R19" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S19" t="n">
-        <v>18.47369298393057</v>
+        <v>18.47369298393056</v>
       </c>
       <c r="T19" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I35" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J35" t="n">
         <v>200.5726652953606</v>
@@ -33661,16 +33661,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L35" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M35" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O35" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P35" t="n">
         <v>339.8294523961115</v>
@@ -33682,10 +33682,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S35" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T35" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U35" t="n">
         <v>0.1890550756108789</v>
@@ -33731,43 +33731,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I36" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J36" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K36" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L36" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N36" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O36" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P36" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q36" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R36" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S36" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T36" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H37" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I37" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J37" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K37" t="n">
         <v>123.1579532262038</v>
@@ -33834,7 +33834,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R37" t="n">
         <v>47.66347704669828</v>
@@ -33846,7 +33846,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I41" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J41" t="n">
         <v>200.5726652953606</v>
@@ -34135,16 +34135,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L41" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M41" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N41" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O41" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P41" t="n">
         <v>339.8294523961115</v>
@@ -34156,10 +34156,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S41" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T41" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U41" t="n">
         <v>0.1890550756108789</v>
@@ -34205,43 +34205,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I42" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J42" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K42" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L42" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M42" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N42" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O42" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P42" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q42" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R42" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S42" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T42" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H43" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I43" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J43" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K43" t="n">
         <v>123.1579532262038</v>
@@ -34308,7 +34308,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R43" t="n">
         <v>47.66347704669828</v>
@@ -34320,7 +34320,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I44" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J44" t="n">
         <v>200.5726652953606</v>
@@ -34372,16 +34372,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L44" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M44" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N44" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O44" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P44" t="n">
         <v>339.8294523961115</v>
@@ -34393,10 +34393,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S44" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T44" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U44" t="n">
         <v>0.1890550756108789</v>
@@ -34442,43 +34442,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I45" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J45" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K45" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L45" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M45" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N45" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O45" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P45" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q45" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R45" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S45" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T45" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H46" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I46" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J46" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K46" t="n">
         <v>123.1579532262038</v>
@@ -34545,7 +34545,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R46" t="n">
         <v>47.66347704669828</v>
@@ -34557,7 +34557,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>188.6233759407481</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K11" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L11" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M11" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N11" t="n">
-        <v>629.6034830521205</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O11" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P11" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q11" t="n">
         <v>245.2070669901341</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>66.33422479839768</v>
+        <v>248.6545007487531</v>
       </c>
       <c r="L12" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
-        <v>643.9455333495112</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N12" t="n">
-        <v>676.8545255858768</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O12" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P12" t="n">
-        <v>142.5518187837662</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.41998375525588</v>
+        <v>21.41998375525583</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591767</v>
+        <v>2.005775453591763</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265959</v>
@@ -35574,7 +35574,7 @@
         <v>205.6095790168992</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179616</v>
+        <v>226.1705215179615</v>
       </c>
       <c r="N13" t="n">
         <v>226.7677401886561</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>188.6233759407481</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K14" t="n">
         <v>404.6619937041511</v>
       </c>
       <c r="L14" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M14" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N14" t="n">
-        <v>629.6034830521205</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O14" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P14" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q14" t="n">
         <v>245.2070669901341</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>330.7994618109763</v>
+        <v>248.6545007487531</v>
       </c>
       <c r="L15" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M15" t="n">
-        <v>178.2404695995111</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N15" t="n">
-        <v>265.9191627244609</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O15" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P15" t="n">
-        <v>425.9366065834112</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q15" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525583</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591809</v>
+        <v>2.005775453591767</v>
       </c>
       <c r="K16" t="n">
         <v>121.3082368265959</v>
@@ -35811,19 +35811,19 @@
         <v>205.6095790168992</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179616</v>
+        <v>226.1705215179615</v>
       </c>
       <c r="N16" t="n">
-        <v>226.7677401886562</v>
+        <v>226.7677401886561</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929765</v>
+        <v>194.8374429929764</v>
       </c>
       <c r="P16" t="n">
         <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944471</v>
+        <v>23.02204415944467</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.6233759407481</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K17" t="n">
         <v>404.6619937041511</v>
       </c>
       <c r="L17" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N17" t="n">
-        <v>629.6034830521205</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O17" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q17" t="n">
         <v>245.2070669901341</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>101.4122056386903</v>
+        <v>66.3342247983976</v>
       </c>
       <c r="L18" t="n">
         <v>506.8253423079595</v>
@@ -35978,10 +35978,10 @@
         <v>552.1031129581706</v>
       </c>
       <c r="P18" t="n">
-        <v>107.473837943474</v>
+        <v>142.5518187837667</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.41998375525586</v>
+        <v>21.41998375525583</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316142</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36060,7 +36060,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901432</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.6233759407484</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K20" t="n">
         <v>404.6619937041511</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>330.7994618109763</v>
@@ -36206,10 +36206,10 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>178.2404695995111</v>
+        <v>365.3605951449923</v>
       </c>
       <c r="N21" t="n">
-        <v>265.9191627244609</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O21" t="n">
         <v>552.1031129581706</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L22" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M22" t="n">
         <v>287.5620158775312</v>
@@ -36291,13 +36291,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O22" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P22" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>330.7994618109763</v>
+        <v>101.4122056386903</v>
       </c>
       <c r="L24" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M24" t="n">
-        <v>178.2404695995111</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N24" t="n">
-        <v>265.9191627244609</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O24" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P24" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q24" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L25" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M25" t="n">
         <v>287.5620158775312</v>
@@ -36528,13 +36528,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O25" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P25" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P26" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123249</v>
       </c>
       <c r="Q26" t="n">
-        <v>245.2070669901346</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316146</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K28" t="n">
-        <v>182.6997311861656</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L28" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M28" t="n">
         <v>287.5620158775312</v>
@@ -36765,13 +36765,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O28" t="n">
-        <v>256.2289373525461</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P28" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901437</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.39726981316139</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K31" t="n">
         <v>182.6997311861655</v>
@@ -37008,7 +37008,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>246.6474810816486</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N33" t="n">
-        <v>197.5121512423232</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O33" t="n">
         <v>552.1031129581706</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L34" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M34" t="n">
         <v>293.6646586253573</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K35" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L35" t="n">
-        <v>554.8236601362607</v>
+        <v>461.425393411037</v>
       </c>
       <c r="M35" t="n">
-        <v>540.7242466073204</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N35" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O35" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P35" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q35" t="n">
         <v>245.2070669901341</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>218.8616997797486</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L36" t="n">
-        <v>135.9849970045004</v>
+        <v>142.7603490366168</v>
       </c>
       <c r="M36" t="n">
-        <v>643.9455333495112</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>676.8545255858768</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2407936814412</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P36" t="n">
         <v>425.9366065834112</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.6233759407481</v>
+        <v>95.22510921552413</v>
       </c>
       <c r="K38" t="n">
         <v>404.6619937041512</v>
@@ -37549,7 +37549,7 @@
         <v>554.8236601362607</v>
       </c>
       <c r="M38" t="n">
-        <v>540.7242466073204</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N38" t="n">
         <v>629.6034830521205</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>330.7994618109763</v>
+        <v>101.4122056386898</v>
       </c>
       <c r="L39" t="n">
         <v>506.8253423079596</v>
       </c>
       <c r="M39" t="n">
-        <v>178.2404695995112</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N39" t="n">
-        <v>265.9191627244609</v>
+        <v>676.8545255858768</v>
       </c>
       <c r="O39" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P39" t="n">
-        <v>425.9366065834112</v>
+        <v>107.4738379434741</v>
       </c>
       <c r="Q39" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525588</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
@@ -37719,7 +37719,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.6233759407481</v>
+        <v>95.22510921552413</v>
       </c>
       <c r="K41" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L41" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M41" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N41" t="n">
-        <v>536.205216326897</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O41" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P41" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q41" t="n">
         <v>245.2070669901341</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839768</v>
       </c>
       <c r="L42" t="n">
-        <v>135.9849970045004</v>
+        <v>223.4405545083147</v>
       </c>
       <c r="M42" t="n">
-        <v>532.0077713182839</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N42" t="n">
-        <v>676.8545255858767</v>
+        <v>676.8545255858768</v>
       </c>
       <c r="O42" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P42" t="n">
         <v>425.9366065834112</v>
       </c>
       <c r="Q42" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525588</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098757</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339917</v>
@@ -37956,7 +37956,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684048</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K44" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L44" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M44" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N44" t="n">
-        <v>536.2052163268975</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O44" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P44" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.2070669901341</v>
+        <v>151.8088002649101</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839768</v>
       </c>
       <c r="L45" t="n">
-        <v>489.7522987232732</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M45" t="n">
-        <v>178.2404695995111</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858767</v>
+        <v>676.8545255858768</v>
       </c>
       <c r="O45" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P45" t="n">
-        <v>425.9366065834112</v>
+        <v>142.5518187837662</v>
       </c>
       <c r="Q45" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525588</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K46" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L46" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M46" t="n">
         <v>293.6646586253573</v>
@@ -38193,7 +38193,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
